--- a/public/assets/template/mahasiswa.xlsx
+++ b/public/assets/template/mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\sisfo-akbid\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F470129-4265-46F5-8B33-FEA20A80527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF510AA-DA15-4579-B2FB-C01EE075E194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{37929CBA-6CA4-4E65-A0F6-7400980AC36E}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{37929CBA-6CA4-4E65-A0F6-7400980AC36E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>Program Studi</t>
   </si>
 </sst>
 </file>
@@ -131,9 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A52039-D156-4C89-B9A0-10B1C83FCE3A}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,23 +465,23 @@
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,59 +497,61 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -560,14 +566,14 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -582,14 +588,14 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -604,14 +610,14 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -626,14 +632,14 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -648,14 +654,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -670,14 +676,14 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -692,14 +698,14 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -714,14 +720,14 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -736,14 +742,14 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -758,14 +764,14 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -780,14 +786,14 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -802,14 +808,14 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -824,14 +830,14 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -846,14 +852,14 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -868,14 +874,14 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -890,14 +896,14 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -912,14 +918,14 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -934,14 +940,14 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -956,14 +962,14 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -978,6 +984,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
